--- a/biology/Histoire de la zoologie et de la botanique/Yu-Hsi_Moltze_Wang/Yu-Hsi_Moltze_Wang.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yu-Hsi_Moltze_Wang/Yu-Hsi_Moltze_Wang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yu-Hsi Moltze Wang est  un zoologiste chinois, né le 17 juillet 1910 à Zhejiang et mort le 18 janvier 1968 à Singapour.
 Sa famille s’installe assez tôt à Taïwan. Il fait ses études à Taipei puis obtient son Ph. D. à l’université d’État de l’Utah en 1951. Il travailla après à l’université de Taïwan, essentiellement sur les myriapodes.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulletin du Centre international de myriapodologie (2005, n° 38).
  Portail de l’histoire de la zoologie et de la botanique                     </t>
